--- a/versions/v11/docs/mobile-attack-v11.2/mobile-attack-v11.2-techniques.xlsx
+++ b/versions/v11/docs/mobile-attack-v11.2/mobile-attack-v11.2-techniques.xlsx
@@ -2143,130 +2143,130 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: Check Point-Joker),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),(Citation: Bitdefender Mandrake),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: Check Point-Joker),(Citation: Talos-WolfRAT),(Citation: Bitdefender Mandrake),(Citation: TrendMicro Coronavirus Updates),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
   </si>
   <si>
-    <t>(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles),</t>
+    <t>(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider),</t>
   </si>
   <si>
     <t>(Citation: Lookout Uyghur Campaign),</t>
   </si>
   <si>
-    <t>(Citation: Symantec GoldenCup),(Citation: Securelist Asacub),(Citation: Lookout Desert Scorpion),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: Cofense Anubis),(Citation: Google Triada June 2019),(Citation: Trend Micro Bouncing Golf 2019),</t>
+    <t>(Citation: Securelist Asacub),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Google Triada June 2019),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: Cofense Anubis),</t>
   </si>
   <si>
     <t>(Citation: Lookout eSurv),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),</t>
   </si>
   <si>
-    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler-SuperMarioRun),(Citation: Bitdefender - Triout 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Dendroid),(Citation: Lookout Desert Scorpion),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro-XLoader),(Citation: BlackBerry Bahamut),(Citation: Kaspersky-Skygofree),(Citation: Talos-WolfRAT),(Citation: Lookout ViperRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler-SpyNote),(Citation: Symantec GoldenCup),(Citation: SecureList BusyGasper),(Citation: Lookout-EnterpriseApps),(Citation: Cofense Anubis),(Citation: Wandera-RedDrop),(Citation: Lookout-StealthMango),(Citation: Lookout eSurv),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro-RCSAndroid),(Citation: Palo Alto HenBox),(Citation: Lookout-Pegasus),(Citation: Lookout-PegasusAndroid),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),</t>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: Talos-WolfRAT),(Citation: SecureList BusyGasper),(Citation: Lookout-Monokle),(Citation: TrendMicro-XLoader),(Citation: Zscaler-SpyNote),(Citation: CyberMerchants-FlexiSpy),(Citation: Palo Alto HenBox),(Citation: Symantec GoldenCup),(Citation: Kaspersky-Skygofree),(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler-SuperMarioRun),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cofense Anubis),(Citation: Bitdefender - Triout 2018),(Citation: Wandera-RedDrop),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: SWB Exodus March 2019),(Citation: Lookout eSurv),(Citation: Lookout-StealthMango),(Citation: Lookout FrozenCell),(Citation: BlackBerry Bahamut),(Citation: Lookout-Dendroid),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Pegasus),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-EnterpriseApps),(Citation: TrendMicro-RCSAndroid),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),(Citation: SecureList BusyGasper),</t>
   </si>
   <si>
     <t>(Citation: HackerNews-OldBoot),</t>
   </si>
   <si>
-    <t>(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-PegasusAndroid),(Citation: Threat Fabric Exobot),(Citation: FortiGuard-FlexiSpy),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Talos GPlayed),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler-SpyNote),(Citation: ESET DEFENSOR ID),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CheckPoint SimBad 2019),(Citation: Cybereason EventBot),(Citation: Microsoft MalLockerB),(Citation: Cybereason FakeSpy),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-PegasusAndroid),</t>
-  </si>
-  <si>
-    <t>(Citation: Cofense Anubis),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler-SuperMarioRun),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: Zscaler TikTok Spyware),(Citation: Kaspersky-WUC),(Citation: Talos-WolfRAT),(Citation: Lookout ViperRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: NYTimes-BackDoor),(Citation: Google Project Zero Insomnia),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-StealthMango),(Citation: Palo Alto HenBox),(Citation: Lookout-Pegasus),(Citation: Lookout-PegasusAndroid),</t>
-  </si>
-  <si>
-    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-XcodeGhost),(Citation: TrendMicro-RCSAndroid),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: SecureList DVMap June 2017),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: Zscaler-SpyNote),(Citation: Palo Alto HenBox),(Citation: Threat Fabric Exobot),(Citation: Lookout-PegasusAndroid),(Citation: ESET DEFENSOR ID),(Citation: Cybereason FakeSpy),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint SimBad 2019),(Citation: Microsoft MalLockerB),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason EventBot),(Citation: Talos GPlayed),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro Bouncing Golf 2019),(Citation: FortiGuard-FlexiSpy),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-PegasusAndroid),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: SecureList BusyGasper),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: Talos-WolfRAT),(Citation: NYTimes-BackDoor),(Citation: Lookout-Monokle),(Citation: Kaspersky-WUC),(Citation: Palo Alto HenBox),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler-SuperMarioRun),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: Sophos Red Alert 2.0),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: Lookout-EnterpriseApps),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Pegasus),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost),(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: SecureList DVMap June 2017),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-BrainTest),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: Lookout-Adware),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost),</t>
-  </si>
-  <si>
-    <t>(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor),(Citation: Krebs-Triada June 2019),(Citation: Lookout-StealthMango),(Citation: HackerNews-Allwinner),(Citation: Google Triada June 2019),(Citation: CYBERWARCON CHEMISTGAMES),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-PegasusAndroid),(Citation: Threat Fabric Cerberus),(Citation: Sophos Red Alert 2.0),(Citation: ThreatFabric Ginp),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: SWB Exodus March 2019),(Citation: Zscaler TikTok Spyware),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Kaspersky-WUC),(Citation: BlackBerry Bahamut),(Citation: Threat Fabric Exobot),(Citation: Talos-WolfRAT),(Citation: Lookout ViperRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler-SpyNote),(Citation: Symantec GoldenCup),(Citation: NYTimes-BackDoor),(Citation: Securelist Asacub),(Citation: Talos GPlayed),(Citation: Google Project Zero Insomnia),(Citation: Cofense Anubis),(Citation: Lookout-EnterpriseApps),(Citation: CheckPoint-Charger),(Citation: Lookout eSurv),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: Palo Alto HenBox),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Pegasus),(Citation: Cybereason FakeSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: Cofense Anubis),(Citation: PaloAlto-Xbot),</t>
-  </si>
-  <si>
-    <t>(Citation: Gooligan Citation),(Citation: ThreatFabric Ginp),(Citation: Lookout-Monokle),(Citation: Bitdefender - Triout 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: FlexiSpy-Features),(Citation: Lookout-Dendroid),(Citation: Lookout Desert Scorpion),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: Zscaler TikTok Spyware),(Citation: BlackBerry Bahamut),(Citation: Talos-WolfRAT),(Citation: Trend Micro Anubis),(Citation: Lookout ViperRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler-SpyNote),(Citation: Symantec GoldenCup),(Citation: SecurityIntelligence TrickMo),(Citation: Talos GPlayed),(Citation: Google Project Zero Insomnia),(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: Lookout eSurv),(Citation: Lookout-StealthMango),(Citation: TrendMicro-RCSAndroid),(Citation: Palo Alto HenBox),(Citation: Talos Gustuff Apr 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Cofense Anubis),(Citation: Trend Micro Anubis),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-Anserver),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: Sophos Red Alert 2.0),(Citation: Securelist Asacub),(Citation: Talos GPlayed),(Citation: TrendMicro-XLoader),(Citation: Proofpoint-Marcher),(Citation: GoogleIO2016)</t>
-  </si>
-  <si>
-    <t>(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: Microsoft MalLockerB),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: Cofense Anubis),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),</t>
+    <t>(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Adware),(Citation: Lookout-Pegasus),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
+  </si>
+  <si>
+    <t>(Citation: HackerNews-Allwinner),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Krebs-Triada June 2019),(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor),(Citation: Google Triada June 2019),(Citation: Lookout-StealthMango),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: Talos-WolfRAT),(Citation: NYTimes-BackDoor),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Monokle),(Citation: Securelist Asacub),(Citation: Kaspersky-WUC),(Citation: Zscaler-SpyNote),(Citation: CyberMerchants-FlexiSpy),(Citation: Palo Alto HenBox),(Citation: Threat Fabric Exobot),(Citation: Symantec GoldenCup),(Citation: Google Project Zero Insomnia),(Citation: Talos Gustuff Apr 2019),(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos GPlayed),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cofense Anubis),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: Cybereason FakeSpy),(Citation: Lookout ViperRAT),(Citation: Sophos Red Alert 2.0),(Citation: SWB Exodus March 2019),(Citation: Lookout eSurv),(Citation: securelist rotexy 2018),(Citation: Lookout-StealthMango),(Citation: BlackBerry Bahamut),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout-Pegasus),(Citation: CheckPoint-Charger),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-EnterpriseApps),(Citation: ThreatFabric Ginp),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-Xbot),(Citation: Cofense Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: Talos-WolfRAT),(Citation: SecureList BusyGasper),(Citation: Lookout-Monokle),(Citation: Zscaler-SpyNote),(Citation: Palo Alto HenBox),(Citation: Symantec GoldenCup),(Citation: Google Project Zero Insomnia),(Citation: Talos Gustuff Apr 2019),(Citation: TrendMicro Coronavirus Updates),(Citation: FlexiSpy-Features),(Citation: Talos GPlayed),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cofense Anubis),(Citation: Bitdefender - Triout 2018),(Citation: Zscaler TikTok Spyware),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: Trend Micro Anubis),(Citation: SWB Exodus March 2019),(Citation: Lookout eSurv),(Citation: Lookout-StealthMango),(Citation: Lookout FrozenCell),(Citation: BlackBerry Bahamut),(Citation: Lookout-Dendroid),(Citation: SecureList - ViceLeaker 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Gooligan Citation),(Citation: TrendMicro-RCSAndroid),(Citation: ThreatFabric Ginp),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-Anserver),(Citation: Trend Micro Anubis),(Citation: Sophos Red Alert 2.0),(Citation: Cofense Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: Proofpoint-Marcher),(Citation: TrendMicro-XLoader),(Citation: Threat Fabric Exobot),(Citation: Sophos Red Alert 2.0),(Citation: Talos GPlayed),(Citation: GoogleIO2016)</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),(Citation: Microsoft MalLockerB),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Security Zen),(Citation: Bitdefender Mandrake),(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),(Citation: Cofense Anubis),</t>
   </si>
   <si>
     <t>(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),</t>
   </si>
   <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: Sophos Red Alert 2.0),(Citation: Bitdefender Mandrake),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Xiao-ZergHelper),(Citation: Lookout Desert Scorpion),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: Google Security Zen),(Citation: Google Triada June 2019),(Citation: BlackBerry Bahamut),(Citation: Kaspersky-Skygofree),(Citation: Talos-WolfRAT),(Citation: Trend Micro Anubis),(Citation: CheckPoint-Judy),(Citation: Lookout ViperRAT),(Citation: SecureList DVMap June 2017),(Citation: Symantec GoldenCup),(Citation: Lookout-BrainTest),(Citation: Talos GPlayed),(Citation: SecureList BusyGasper),(Citation: Google Bread),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout eSurv),(Citation: TrendMicro-RCSAndroid),(Citation: Palo Alto HenBox),(Citation: Cybereason EventBot),(Citation: PaloAlto-SpyDealer),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: Volexity Insomnia),(Citation: Lookout-StealthMango),(Citation: Lookout-Pegasus),</t>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: Talos-WolfRAT),(Citation: SecureList DVMap June 2017),(Citation: Google Bread),(Citation: Cybereason EventBot),(Citation: Threat Fabric Cerberus),(Citation: SecureList BusyGasper),(Citation: Lookout-BrainTest),(Citation: Palo Alto HenBox),(Citation: CheckPoint-Judy),(Citation: Symantec GoldenCup),(Citation: Kaspersky-Skygofree),(Citation: Talos GPlayed),(Citation: Xiao-ZergHelper),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: Lookout ViperRAT),(Citation: Trend Micro Anubis),(Citation: WhiteOps TERRACOTTA),(Citation: Sophos Red Alert 2.0),(Citation: SWB Exodus March 2019),(Citation: Lookout eSurv),(Citation: Lookout FrozenCell),(Citation: BlackBerry Bahamut),(Citation: Google Security Zen),(Citation: Google Triada June 2019),(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro-RCSAndroid),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Pegasus),(Citation: Volexity Insomnia),(Citation: Lookout-StealthMango),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: PaloAlto-Xbot),(Citation: CheckPoint-Charger),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),</t>
+    <t>(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),(Citation: Threat Fabric Exobot),(Citation: CheckPoint-Charger),</t>
   </si>
   <si>
     <t>,(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout eSurv),(Citation: Wandera-RedDrop),(Citation: Bitdefender - Triout 2018),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Google Triada June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),</t>
-  </si>
-  <si>
-    <t>(Citation: Gooligan Citation),(Citation: Lookout-PegasusAndroid),(Citation: ArsTechnica-HummingBad),(Citation: Lookout-BrainTest),(Citation: Lookout-Pegasus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: PaloAlto-SpyDealer),(Citation: Google Security Zen),(Citation: Volexity Insomnia),(Citation: CheckPoint Agent Smith),(Citation: Lookout-Adware),(Citation: Lookout Uyghur Campaign),(Citation: SecureList DVMap June 2017),</t>
+    <t>(Citation: Wandera-RedDrop),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout eSurv),(Citation: Google Triada June 2019),(Citation: Trend Micro Bouncing Golf 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint Agent Smith),(Citation: Lookout-BrainTest),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Security Zen),(Citation: Lookout Uyghur Campaign),(Citation: Volexity Insomnia),(Citation: Kaspersky-Skygofree),(Citation: Gooligan Citation),(Citation: Lookout-Adware),(Citation: Lookout-Pegasus),(Citation: SecureList DVMap June 2017),(Citation: Lookout-PegasusAndroid),(Citation: SWB Exodus March 2019),(Citation: ArsTechnica-HummingBad),(Citation: PaloAlto-SpyDealer),</t>
   </si>
   <si>
     <t>(Citation: Lookout-NotCompatible),(Citation: TrendMicro-DressCode),</t>
   </si>
   <si>
-    <t>(Citation: Lookout Desert Scorpion),(Citation: Talos GPlayed),(Citation: Lookout-Monokle),(Citation: Bitdefender Mandrake),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: CyberMerchants-FlexiSpy),(Citation: CheckPoint Agent Smith),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: Symantec GoldenCup),(Citation: Lookout Desert Scorpion),(Citation: Zscaler TikTok Spyware),(Citation: Lookout FrozenCell),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: Sophos Red Alert 2.0),(Citation: ThreatFabric Ginp),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Bitdefender Mandrake),(Citation: Lookout-Dendroid),(Citation: PaloAlto-Xbot),(Citation: Zscaler TikTok Spyware),(Citation: Proofpoint-Marcher),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: Cofense Anubis),(Citation: WhiteOps TERRACOTTA),(Citation: Group IB Gustuff Mar 2019),(Citation: PaloAlto-XcodeGhost),(Citation: Talos Gustuff Apr 2019),(Citation: Cybereason EventBot),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: ArsTechnica-HummingWhale),(Citation: Gooligan Citation),(Citation: Tripwire-MazarBOT),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout-BrainTest),(Citation: Google Bread),(Citation: Lookout-EnterpriseApps),(Citation: Wandera-RedDrop),(Citation: WhiteOps TERRACOTTA),(Citation: CheckPoint-Judy),(Citation: Google Security Zen),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada June 2016),(Citation: CheckPoint Agent Smith),(Citation: CheckPoint SimBad 2019),(Citation: ArsTechnica-HummingBad),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: Lookout eSurv),</t>
+    <t>(Citation: CheckPoint Agent Smith),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Talos-WolfRAT),(Citation: Bitdefender Mandrake),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos GPlayed),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Symantec GoldenCup),(Citation: Lookout FrozenCell),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: Proofpoint-Marcher),(Citation: Cybereason EventBot),(Citation: Threat Fabric Cerberus),(Citation: PaloAlto-Xbot),(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos GPlayed),(Citation: Cofense Anubis),(Citation: Zscaler TikTok Spyware),(Citation: PaloAlto-XcodeGhost),(Citation: Group IB Gustuff Mar 2019),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: Sophos Red Alert 2.0),(Citation: securelist rotexy 2018),(Citation: Lookout-Dendroid),(Citation: Kaspersky Riltok June 2019),(Citation: ThreatFabric Ginp),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: Wandera-RedDrop),(Citation: Kaspersky Triada June 2016),(Citation: CheckPoint Agent Smith),(Citation: Lookout-BrainTest),(Citation: ArsTechnica-HummingWhale),(Citation: Google Triada June 2019),(Citation: Google Security Zen),(Citation: CheckPoint-Judy),(Citation: CheckPoint SimBad 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: WhiteOps TERRACOTTA),(Citation: Google Bread),(Citation: Gooligan Citation),(Citation: ArsTechnica-HummingBad),(Citation: Lookout-EnterpriseApps),(Citation: Tripwire-MazarBOT),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),</t>
   </si>
   <si>
     <t>,(Citation: Android-VerifiedBoot)</t>
@@ -2275,97 +2275,97 @@
     <t>(Citation: CitizenLab Circles),(Citation: CSRIC-WG1-FinalReport)</t>
   </si>
   <si>
-    <t>(Citation: Wandera-RedDrop),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Monokle),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>,(Citation: Samsung Keyboards),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: SecurityIntelligence TrickMo),(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Cerberus),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: Google Security Zen),(Citation: WhiteOps TERRACOTTA),(Citation: ESET DEFENSOR ID),(Citation: Talos Gustuff Apr 2019),(Citation: Kaspersky Riltok June 2019),</t>
+    <t>(Citation: Wandera-RedDrop),(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender Mandrake),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>,(Citation: Android 12 Features),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint Cerberus),(Citation: Google Security Zen),(Citation: Bitdefender Mandrake),(Citation: ESET DEFENSOR ID),(Citation: Talos Gustuff Apr 2019),(Citation: Kaspersky Riltok June 2019),(Citation: SecurityIntelligence TrickMo),(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Cerberus),(Citation: ThreatFabric Ginp),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: Threat Fabric Cerberus),(Citation: Threat Fabric Exobot),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: Talos Gustuff Apr 2019),(Citation: Cybereason EventBot),(Citation: FlexiSpy-Features),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-SpyDealer),(Citation: Bitdefender - Triout 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: Zscaler TikTok Spyware),(Citation: Kaspersky-WUC),(Citation: BlackBerry Bahamut),(Citation: Kaspersky-Skygofree),(Citation: Lookout ViperRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler-SpyNote),(Citation: Symantec GoldenCup),(Citation: NYTimes-BackDoor),(Citation: CrowdStrike-Android),(Citation: Talos GPlayed),(Citation: Google Project Zero Insomnia),(Citation: Cofense Anubis),(Citation: Lookout-EnterpriseApps),(Citation: SecureList BusyGasper),(Citation: CheckPoint-Charger),(Citation: Lookout-StealthMango),(Citation: Lookout eSurv),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro-RCSAndroid),(Citation: Palo Alto HenBox),(Citation: Lookout-Pegasus),(Citation: CSRIC5-WG10-FinalReport)</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: Google Bread),(Citation: WhiteOps TERRACOTTA),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint Cerberus),(Citation: Sophos Red Alert 2.0),(Citation: FortiGuard-FlexiSpy),(Citation: SWB Exodus March 2019),(Citation: Bitdefender Mandrake),(Citation: Volexity Insomnia),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: Sophos Red Alert 2.0),(Citation: ThreatFabric Ginp),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: Bitdefender Mandrake),(Citation: Check Point-Joker),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-Obad),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Google Security Zen),(Citation: Volexity Insomnia),(Citation: TrendMicro-XLoader),(Citation: PaloAlto-WireLurker),(Citation: securelist rotexy 2018),(Citation: BlackBerry Bahamut),(Citation: Talos-WolfRAT),(Citation: Microsoft MalLockerB),(Citation: SecureList DVMap June 2017),(Citation: SecurityIntelligence TrickMo),(Citation: Securelist Asacub),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout-BrainTest),(Citation: Talos GPlayed),(Citation: Google Bread),(Citation: CheckPoint-Charger),(Citation: WhiteOps TERRACOTTA),(Citation: Palo Alto HenBox),(Citation: Talos Gustuff Apr 2019),(Citation: Cybereason EventBot),(Citation: Cybereason FakeSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-Pegasus),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Monokle),(Citation: Kaspersky-Skygofree),(Citation: SecureList BusyGasper),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: TrendMicro-RCSAndroid),(Citation: Talos Gustuff Apr 2019),(Citation: securelist rotexy 2018),(Citation: Kaspersky-WUC),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),</t>
+    <t>(Citation: BlackBerry Bahamut),(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: FlexiSpy-Features),(Citation: Cybereason EventBot),(Citation: Threat Fabric Cerberus),(Citation: Cofense Anubis),(Citation: SecureList BusyGasper),(Citation: Lookout-Monokle),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: NYTimes-BackDoor),(Citation: CrowdStrike-Android),(Citation: Threat Fabric Cerberus),(Citation: SecureList BusyGasper),(Citation: Lookout-Monokle),(Citation: Kaspersky-WUC),(Citation: Zscaler-SpyNote),(Citation: CyberMerchants-FlexiSpy),(Citation: Palo Alto HenBox),(Citation: Symantec GoldenCup),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky-Skygofree),(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos GPlayed),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cofense Anubis),(Citation: Bitdefender - Triout 2018),(Citation: Zscaler TikTok Spyware),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: Lookout ViperRAT),(Citation: SWB Exodus March 2019),(Citation: Lookout eSurv),(Citation: Lookout-StealthMango),(Citation: Lookout FrozenCell),(Citation: BlackBerry Bahamut),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Pegasus),(Citation: CheckPoint-Charger),(Citation: Lookout-EnterpriseApps),(Citation: TrendMicro-RCSAndroid),(Citation: CSRIC5-WG10-FinalReport)</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: WhiteOps TERRACOTTA),(Citation: Google Bread),</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint Cerberus),(Citation: Volexity Insomnia),(Citation: Bitdefender Mandrake),(Citation: Sophos Red Alert 2.0),(Citation: SWB Exodus March 2019),(Citation: FortiGuard-FlexiSpy),</t>
+  </si>
+  <si>
+    <t>(Citation: Talos-WolfRAT),(Citation: SecureList DVMap June 2017),(Citation: Google Bread),(Citation: Cybereason EventBot),(Citation: PaloAlto-WireLurker),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Monokle),(Citation: Securelist Asacub),(Citation: TrendMicro-XLoader),(Citation: Lookout-BrainTest),(Citation: Palo Alto HenBox),(Citation: Volexity Insomnia),(Citation: Talos Gustuff Apr 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Talos GPlayed),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: Cybereason FakeSpy),(Citation: Microsoft MalLockerB),(Citation: WhiteOps TERRACOTTA),(Citation: Check Point-Joker),(Citation: Sophos Red Alert 2.0),(Citation: securelist rotexy 2018),(Citation: BlackBerry Bahamut),(Citation: Google Security Zen),(Citation: SecurityIntelligence TrickMo),(Citation: CheckPoint-Charger),(Citation: TrendMicro-Obad),(Citation: FortiGuard-FlexiSpy),(Citation: ThreatFabric Ginp),</t>
+  </si>
+  <si>
+    <t>(Citation: Kaspersky-WUC),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-Skygofree),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Pegasus),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-SpyDealer),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: securelist rotexy 2018),(Citation: SecureList BusyGasper),(Citation: Lookout-Monokle),</t>
   </si>
   <si>
     <t>(Citation: TrendMicro-Obad),(Citation: Bitdefender Mandrake),</t>
   </si>
   <si>
-    <t>(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: Zimperium z9),(Citation: CheckPoint Agent Smith),(Citation: Trend Micro Bouncing Golf 2019),(Citation: securelist rotexy 2018),</t>
+    <t>(Citation: CheckPoint Agent Smith),(Citation: Zimperium z9),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: securelist rotexy 2018),(Citation: Trend Micro Bouncing Golf 2019),</t>
   </si>
   <si>
     <t>(Citation: Threat Fabric Exobot),</t>
   </si>
   <si>
-    <t>(Citation: Google Triada June 2019),(Citation: Google Project Zero Insomnia),(Citation: Google Security Zen),(Citation: Kaspersky Triada March 2016),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-DualToy),(Citation: PaloAlto-WireLurker),(Citation: Elcomsoft-iOSRestricted)</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: Sophos Red Alert 2.0),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Dendroid),(Citation: Lookout Desert Scorpion),(Citation: Zscaler TikTok Spyware),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Exobot),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: Securelist Asacub),(Citation: Talos GPlayed),(Citation: Cofense Anubis),(Citation: SecureList BusyGasper),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-StealthMango),(Citation: Cybereason FakeSpy),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: Sophos Red Alert 2.0),(Citation: ThreatFabric Ginp),(Citation: Lookout Dark Caracal Jan 2018),(Citation: PaloAlto-SpyDealer),(Citation: Bitdefender Mandrake),(Citation: Zscaler-SuperMarioRun),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: FlexiSpy-Features),(Citation: Lookout-Dendroid),(Citation: PaloAlto-Xbot),(Citation: Lookout Desert Scorpion),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro-XLoader),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Kaspersky-WUC),(Citation: Kaspersky Triada March 2016),(Citation: BlackBerry Bahamut),(Citation: Tripwire-MazarBOT),(Citation: Threat Fabric Exobot),(Citation: Talos-WolfRAT),(Citation: Lookout ViperRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler-SpyNote),(Citation: Symantec GoldenCup),(Citation: SecurityIntelligence TrickMo),(Citation: NYTimes-BackDoor),(Citation: Securelist Asacub),(Citation: Talos GPlayed),(Citation: Google Project Zero Insomnia),(Citation: FireEye-RuMMS),(Citation: Lookout-EnterpriseApps),(Citation: Google Bread),(Citation: SecureList BusyGasper),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro-RCSAndroid),(Citation: Palo Alto HenBox),(Citation: Talos Gustuff Apr 2019),(Citation: Cybereason EventBot),(Citation: Lookout-Pegasus),(Citation: Cybereason FakeSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: SecurityIntelligence TrickMo),(Citation: ThreatFabric Ginp),(Citation: SWB Exodus March 2019),(Citation: Bitdefender Mandrake),(Citation: Cofense Anubis),(Citation: SecureList BusyGasper),(Citation: Lookout-Monokle),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: ESET DEFENSOR ID),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason EventBot),(Citation: FlexiSpy-Features),(Citation: Nightwatch screencap April 2016)</t>
+    <t>(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Google Security Zen),(Citation: Google Project Zero Insomnia),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-WireLurker),(Citation: PaloAlto-DualToy),(Citation: Elcomsoft-iOSRestricted)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Cerberus),(Citation: SecureList BusyGasper),(Citation: Securelist Asacub),(Citation: Threat Fabric Exobot),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos GPlayed),(Citation: Cofense Anubis),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: Cybereason FakeSpy),(Citation: WhiteOps TERRACOTTA),(Citation: Sophos Red Alert 2.0),(Citation: Lookout-StealthMango),(Citation: securelist rotexy 2018),(Citation: Lookout-Dendroid),(Citation: SecurityIntelligence TrickMo),(Citation: ThreatFabric Ginp),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: Talos-WolfRAT),(Citation: NYTimes-BackDoor),(Citation: Google Bread),(Citation: Cybereason EventBot),(Citation: Threat Fabric Cerberus),(Citation: SecureList BusyGasper),(Citation: Securelist Asacub),(Citation: PaloAlto-Xbot),(Citation: TrendMicro-XLoader),(Citation: Kaspersky-WUC),(Citation: Zscaler-SpyNote),(Citation: CyberMerchants-FlexiSpy),(Citation: Palo Alto HenBox),(Citation: Threat Fabric Exobot),(Citation: Symantec GoldenCup),(Citation: Google Project Zero Insomnia),(Citation: Talos Gustuff Apr 2019),(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro Coronavirus Updates),(Citation: FlexiSpy-Features),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos GPlayed),(Citation: Zscaler-SuperMarioRun),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: FireEye-RuMMS),(Citation: Cybereason FakeSpy),(Citation: Lookout ViperRAT),(Citation: Sophos Red Alert 2.0),(Citation: SWB Exodus March 2019),(Citation: securelist rotexy 2018),(Citation: Lookout FrozenCell),(Citation: Tripwire-MazarBOT),(Citation: Lookout-StealthMango),(Citation: BlackBerry Bahamut),(Citation: Kaspersky Triada March 2016),(Citation: Lookout-Dendroid),(Citation: Kaspersky Riltok June 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Pegasus),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-EnterpriseApps),(Citation: TrendMicro-RCSAndroid),(Citation: ThreatFabric Ginp),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: Talos-WolfRAT),(Citation: Bitdefender Mandrake),(Citation: ESET DEFENSOR ID),(Citation: Lookout-Monokle),(Citation: SecurityIntelligence TrickMo),(Citation: FlexiSpy-Features),(Citation: Cybereason EventBot),(Citation: SWB Exodus March 2019),(Citation: PaloAlto-SpyDealer),(Citation: Cofense Anubis),(Citation: SecureList BusyGasper),(Citation: ThreatFabric Ginp),(Citation: Nightwatch screencap April 2016)</t>
   </si>
   <si>
     <t>(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: Android Package Visibility)</t>
   </si>
   <si>
-    <t>(Citation: Lookout-PegasusAndroid),(Citation: Threat Fabric Cerberus),(Citation: Sophos Red Alert 2.0),(Citation: ThreatFabric Ginp),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: Bitdefender Mandrake),(Citation: CheckPoint Agent Smith),(Citation: Trend Micro Bouncing Golf 2019),(Citation: FlexiSpy-Features),(Citation: Lookout Uyghur Campaign),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Desert Scorpion),(Citation: SWB Exodus March 2019),(Citation: Zscaler TikTok Spyware),(Citation: Google Triada June 2019),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Talos-WolfRAT),(Citation: ESET DEFENSOR ID),(Citation: SecureList - ViceLeaker 2019),(Citation: Symantec GoldenCup),(Citation: SecurityIntelligence TrickMo),(Citation: Talos GPlayed),(Citation: Google Project Zero Insomnia),(Citation: Cofense Anubis),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-StealthMango),(Citation: Palo Alto HenBox),(Citation: Cybereason EventBot),(Citation: Cybereason FakeSpy),(Citation: Android Package Visibility)</t>
+    <t>(Citation: CheckPoint Agent Smith),(Citation: Lookout Desert Scorpion),(Citation: Talos-WolfRAT),(Citation: Cybereason EventBot),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Monokle),(Citation: Palo Alto HenBox),(Citation: Symantec GoldenCup),(Citation: Google Project Zero Insomnia),(Citation: ESET DEFENSOR ID),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: FlexiSpy-Features),(Citation: Talos GPlayed),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cofense Anubis),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: Cybereason FakeSpy),(Citation: WhiteOps TERRACOTTA),(Citation: Sophos Red Alert 2.0),(Citation: SWB Exodus March 2019),(Citation: securelist rotexy 2018),(Citation: Lookout-StealthMango),(Citation: Kaspersky Riltok June 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-PegasusAndroid),(Citation: Google Triada June 2019),(Citation: ThreatFabric Ginp),(Citation: Android Package Visibility)</t>
   </si>
   <si>
     <t>(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),</t>
   </si>
   <si>
-    <t>,(Citation: Trend Micro iOS URL Hijacking),(Citation: IETF-PKCE),(Citation: Android App Links),(Citation: iOS Universal Links)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-PegasusAndroid),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout-Pegasus),(Citation: Lookout Desert Scorpion),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),(Citation: Kaspersky-Skygofree),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason FakeSpy),</t>
-  </si>
-  <si>
-    <t>,(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET-Twitoor),(Citation: Threat Fabric Cerberus),(Citation: FortiGuard-FlexiSpy),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ThreatFabric Ginp),(Citation: Lookout Desert Scorpion),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: SecureList BusyGasper),(Citation: Group IB Gustuff Mar 2019),(Citation: Bitdefender - Triout 2018),(Citation: FlexiSpy-Features),(Citation: CheckPoint SimBad 2019),(Citation: CheckPoint Agent Smith),(Citation: securelist rotexy 2018),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason FakeSpy),(Citation: LauncherApps getActivityList),(Citation: Android 10 Limitations to Hiding App Icons)</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: securelist rotexy 2018),(Citation: Cybereason EventBot),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Dendroid),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),(Citation: Trend Micro Anubis),(Citation: WhiteOps TERRACOTTA),(Citation: Palo Alto HenBox),(Citation: securelist rotexy 2018),(Citation: Cybereason FakeSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: Bitdefender Mandrake),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Desert Scorpion),(Citation: Zscaler TikTok Spyware),(Citation: Lookout FrozenCell),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Kaspersky-WUC),(Citation: BlackBerry Bahamut),(Citation: Threat Fabric Exobot),(Citation: TrendMicro-Anserver2),(Citation: Lookout ViperRAT),(Citation: Xiao-KeyRaider),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: SecureList DVMap June 2017),(Citation: Symantec GoldenCup),(Citation: SecurityIntelligence TrickMo),(Citation: CheckPoint Cerberus),(Citation: Securelist Asacub),(Citation: Talos GPlayed),(Citation: Google Project Zero Insomnia),(Citation: FireEye-RuMMS),(Citation: Cofense Anubis),(Citation: Wandera-RedDrop),(Citation: Lookout eSurv),(Citation: Palo Alto HenBox),(Citation: Talos Gustuff Apr 2019),(Citation: Cybereason EventBot),(Citation: Lookout-Pegasus),(Citation: Cybereason FakeSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-DualToy),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Cybereason FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Exobot),(Citation: Talos-WolfRAT),(Citation: TrendMicro-Anserver2),(Citation: Lookout ViperRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: Symantec GoldenCup),(Citation: SecurityIntelligence TrickMo),(Citation: Securelist Asacub),(Citation: Talos GPlayed),(Citation: Google Project Zero Insomnia),(Citation: FireEye-RuMMS),(Citation: Google Bread),(Citation: Lookout-EnterpriseApps),(Citation: Wandera-RedDrop),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-StealthMango),(Citation: Talos Gustuff Apr 2019),(Citation: Cybereason EventBot),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-PegasusAndroid),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Lookout ViperRAT),(Citation: FlexiSpy-Features),(Citation: Cybereason FakeSpy),</t>
+    <t>,(Citation: Android App Links),(Citation: IETF-PKCE),(Citation: iOS Universal Links),(Citation: Trend Micro iOS URL Hijacking)</t>
+  </si>
+  <si>
+    <t>(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-Skygofree),(Citation: Bitdefender Mandrake),(Citation: Lookout-Pegasus),(Citation: TrendMicro-RCSAndroid),(Citation: Cybereason FakeSpy),(Citation: Lookout-PegasusAndroid),(Citation: SWB Exodus March 2019),(Citation: PaloAlto-SpyDealer),(Citation: Lookout FrozenCell),(Citation: SecureList BusyGasper),(Citation: Lookout-StealthMango),</t>
+  </si>
+  <si>
+    <t>,(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint Agent Smith),(Citation: FortiGuard-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Group IB Gustuff Mar 2019),(Citation: Bitdefender Mandrake),(Citation: Cybereason FakeSpy),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: securelist rotexy 2018),(Citation: CheckPoint SimBad 2019),(Citation: FlexiSpy-Features),(Citation: ESET-Twitoor),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender - Triout 2018),(Citation: SecureList BusyGasper),(Citation: ThreatFabric Ginp),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
+  </si>
+  <si>
+    <t>(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: BlackBerry Bahamut),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: Lookout-Dendroid),(Citation: Bitdefender Mandrake),(Citation: Cybereason FakeSpy),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: securelist rotexy 2018),(Citation: Trend Micro Anubis),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),(Citation: ThreatFabric Ginp),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: TrendMicro-Anserver2),(Citation: SecureList DVMap June 2017),(Citation: Cybereason EventBot),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Monokle),(Citation: Securelist Asacub),(Citation: Kaspersky-WUC),(Citation: CheckPoint Cerberus),(Citation: Palo Alto HenBox),(Citation: Threat Fabric Exobot),(Citation: Symantec GoldenCup),(Citation: Google Project Zero Insomnia),(Citation: Talos Gustuff Apr 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Xiao-KeyRaider),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos GPlayed),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cofense Anubis),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Wandera-RedDrop),(Citation: Zscaler TikTok Spyware),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: FireEye-RuMMS),(Citation: Cybereason FakeSpy),(Citation: Lookout ViperRAT),(Citation: Lookout eSurv),(Citation: securelist rotexy 2018),(Citation: Lookout FrozenCell),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Pegasus),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: Talos-WolfRAT),(Citation: TrendMicro-Anserver2),(Citation: Google Bread),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: Securelist Asacub),(Citation: Threat Fabric Exobot),(Citation: Symantec GoldenCup),(Citation: Google Project Zero Insomnia),(Citation: Talos Gustuff Apr 2019),(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos GPlayed),(Citation: Wandera-RedDrop),(Citation: Lookout Uyghur Campaign),(Citation: FireEye-RuMMS),(Citation: Cybereason FakeSpy),(Citation: Lookout ViperRAT),(Citation: WhiteOps TERRACOTTA),(Citation: SWB Exodus March 2019),(Citation: securelist rotexy 2018),(Citation: Lookout FrozenCell),(Citation: Lookout-StealthMango),(Citation: PaloAlto-DualToy),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-EnterpriseApps),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Pegasus),(Citation: Cybereason FakeSpy),(Citation: Lookout ViperRAT),(Citation: FlexiSpy-Features),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),</t>
   </si>
   <si>
     <t>(Citation: Google Security Zen),(Citation: FortiGuard-FlexiSpy),(Citation: SecureList DVMap June 2017),(Citation: Android-VerifiedBoot)</t>
@@ -2374,19 +2374,19 @@
     <t>,(Citation: Android 10 Privacy Changes)</t>
   </si>
   <si>
-    <t>(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: SecureList BusyGasper),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),</t>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),</t>
   </si>
   <si>
     <t>(Citation: SecureList BusyGasper),</t>
   </si>
   <si>
-    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: Zscaler-SuperMarioRun),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Dendroid),(Citation: Lookout Desert Scorpion),(Citation: SWB Exodus March 2019),(Citation: Zscaler TikTok Spyware),(Citation: BlackBerry Bahamut),(Citation: Kaspersky-Skygofree),(Citation: Talos-WolfRAT),(Citation: Lookout ViperRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: Symantec GoldenCup),(Citation: SecureList BusyGasper),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro-RCSAndroid),(Citation: Palo Alto HenBox),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-PegasusAndroid),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Bitdefender - Triout 2018),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: SWB Exodus March 2019),(Citation: Volexity Insomnia),(Citation: Kaspersky-MobileMalware),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Kaspersky-WUC),(Citation: Threat Fabric Exobot),(Citation: Kaspersky-Skygofree),(Citation: ESET DEFENSOR ID),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: Symantec GoldenCup),(Citation: SecurityIntelligence TrickMo),(Citation: CheckPoint Cerberus),(Citation: Securelist Asacub),(Citation: Talos GPlayed),(Citation: FireEye-RuMMS),(Citation: Google Bread),(Citation: Wandera-RedDrop),(Citation: Talos Gustuff Apr 2019),(Citation: Cybereason EventBot),(Citation: Cybereason FakeSpy),</t>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: Talos-WolfRAT),(Citation: SecureList BusyGasper),(Citation: Lookout-Monokle),(Citation: CyberMerchants-FlexiSpy),(Citation: Palo Alto HenBox),(Citation: Symantec GoldenCup),(Citation: Kaspersky-Skygofree),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler-SuperMarioRun),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: BlackBerry Bahamut),(Citation: Lookout-Dendroid),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro-RCSAndroid),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Bread),(Citation: Cybereason EventBot),(Citation: Securelist Asacub),(Citation: Kaspersky-WUC),(Citation: CheckPoint Cerberus),(Citation: Volexity Insomnia),(Citation: Threat Fabric Exobot),(Citation: Symantec GoldenCup),(Citation: ESET DEFENSOR ID),(Citation: Talos Gustuff Apr 2019),(Citation: Kaspersky-Skygofree),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos GPlayed),(Citation: Bitdefender - Triout 2018),(Citation: Wandera-RedDrop),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: FireEye-RuMMS),(Citation: Cybereason FakeSpy),(Citation: Sophos Red Alert 2.0),(Citation: SWB Exodus March 2019),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Kaspersky-MobileMalware),(Citation: SecureList - ViceLeaker 2019),(Citation: SecurityIntelligence TrickMo),</t>
   </si>
   <si>
     <t>source ID</t>
